--- a/AVK_DevOps_Plan1.xlsx
+++ b/AVK_DevOps_Plan1.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="8" r:id="rId1"/>
     <sheet name="COURSES" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="DB-N" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="MAIN STUDY PLAN" sheetId="9" r:id="rId7"/>
+    <sheet name="OLD PLAN" sheetId="10" r:id="rId5"/>
+    <sheet name="CLOUD SERVICES" sheetId="11" r:id="rId6"/>
+    <sheet name="DB-N" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
+    <sheet name="MAIN STUDY PLAN" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,8 +27,200 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NEED TO STUDY ALL THE ISSUES MENTIONED IN THE COURSE.
+NOTE DOWN THE COMMANDS USED.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+AFTER INSTALLING EKSCTL CHECK THE RESOURCES IT WILL CREATE IN CLOUDFORMATION.
+CONCENTRATE ON ROLLING UPDATE AND UPGRADE OF MANAGED CP AND NODE GROUPS.
+EFK STACK WITH BOTH FLUENTD AND FLUENTBIT.
+EKS CONTROL PLANE LOGGING &amp; MANAGED NODE LOGGING.
+CLOUDWATCH CONTAINER INSIGHTS
+HPA, CNA, RELATION BETWEEN BOTH HPA, CNA, &amp; AWS AUTOSCALLER
+VPA, GOLDILOCKS
+NAMESPACES
+EKS INGRESS VERY IMP
+SERVICE MESH
+CNI
+K8S NETWORK POLICY
+SERVICE MESH VS N/W POLICY ENFORCER
+RBAC
+SERVICE ACCOUNT
+SECURITY
+KUBECONFIG (CONTEXT)
+AWS IAM AUTHENTICATOR
+FARGATE
+ADVANTAGES OF DEVOPS
+BUILDSPEC.YML FILE
+GITOPS
+FOR RESUME
+JENKINS CI/CD PIPELINE
+GALICO FOR REQUEST AND LIMITS
+CONFIGURED INGRESS CONTROLLER
+SERVICE ACCOUNT FOR IAM ROLE
+COST OPTIMIZATION WITH KUBECOST
+CONFIGURED WITH AWS DEVOPS
+JIRA
+JIRA/SLACK JENKINS INTEGRATION
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LOAD BALANCERS
+API VS ALB DIFFERENCES
+MONOLITH VS MICROSERVICES
+MESSAGING VS STREAMING
+SQL VS NO SQL IMP
+DR - STRATEGIES
+RPO/RTO
+ENCRYPTION
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DEVOPS VS DEVSECOPS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">GIT HOOKS
+GIT PUSH STAGE: TALISMAN
+UNIT TEST: MUTATION TEST(PIT TEST) - IT WILL CHANGE THE USE CASES
+SAST - STATIC ANALYSIS - SONAR QUBE, QUALITY GATES-SETTING THRESHOLD
+CODE VULNERABILITY SCANNING
+DEPEDENCY CHECKER - IDENTIFIES DEPENDENCY VULNERABILITIES
+TRIVY - SAME AS ABOVE BUT ALSO CHECKS OS PACKAGES &amp; APPLICATION DEPENCIES
+OPA CONFTEST - TO TEST THE DOCKER FILES, K8S MANIFESTS, TERRAFORM CODES
+CHECKING K8S VULNERABILITIES
+OPA CONFTEST (K8S DEPLOYMENT YAML)
+KUBESEC 
+TRIVY (SCAN APP IMAGE)
+INTEGRATION TEST - WHEN APPLICATIONS CONNECTING EACH OTHER
+DAST - THE TEST EXECUTED WHEN THE APPLICATION IS RUNNING. THIS IS MOSTLY RUN IN QA ENVIRONMENT.
+OWASP ZAP USED FOR DAST
+OPEN API
+SLACK - INTEGRATING WITH JENKINS - ABLE TO SEND BUILD STATE INFORMATION.
+BEFORE MOVING APPLICATION TO PROD, DO CIS BENCHMARKING FOR K8S - KUBE BENCH
+ISTIO FOR POD COMMUNICATION, ENCRYPTION
+MONITORING
+KUBE-SCAN
+FALCO
+HELM
+SLACK
+PROMETHEUS &amp; GRAFANA
+K8S SECRETS &amp; ITS DRAWBACKS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="960">
   <si>
     <t>LINUX</t>
   </si>
@@ -1881,27 +2076,15 @@
     <t>BT-4</t>
   </si>
   <si>
-    <t>RESUME BUILD/DEVOPS RESPONSIBILITIES VIDEO</t>
-  </si>
-  <si>
     <t>Mestri</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>JAN FEB</t>
-  </si>
-  <si>
-    <t>LINUX/BASH SCRIPTING</t>
-  </si>
-  <si>
     <t>Paint</t>
   </si>
   <si>
-    <t>FEB MAR APR</t>
-  </si>
-  <si>
     <t>JAN SAL/FEB1ST</t>
   </si>
   <si>
@@ -1911,18 +2094,12 @@
     <t>ICICI PL</t>
   </si>
   <si>
-    <t>MAY 1ST - R</t>
-  </si>
-  <si>
     <t>1LAC</t>
   </si>
   <si>
     <t>MAMA</t>
   </si>
   <si>
-    <t>JULY</t>
-  </si>
-  <si>
     <t>FEB SAL/MAR 1ST</t>
   </si>
   <si>
@@ -1947,9 +2124,6 @@
     <t>done till Pod</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Full DevOps Courses</t>
   </si>
   <si>
@@ -2109,9 +2283,6 @@
     <t>AWS - RANGA</t>
   </si>
   <si>
-    <t>AWS - SAA</t>
-  </si>
-  <si>
     <t>WED</t>
   </si>
   <si>
@@ -2133,18 +2304,9 @@
     <t>TUE</t>
   </si>
   <si>
-    <t>AWS - SOP</t>
-  </si>
-  <si>
-    <t>REVISION OF 40 SERVICES AND UPDATE RESUME FOR MINDTREE</t>
-  </si>
-  <si>
     <t>ALL COURSES</t>
   </si>
   <si>
-    <t>AWS - RANGA-R53</t>
-  </si>
-  <si>
     <t>Migrate K8S Cluster to EKS</t>
   </si>
   <si>
@@ -2176,13 +2338,775 @@
   </si>
   <si>
     <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>Elastic Cache</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>ELB - ALB</t>
+  </si>
+  <si>
+    <t>ELB - NLB</t>
+  </si>
+  <si>
+    <t>ELB - CLB</t>
+  </si>
+  <si>
+    <t>ASG</t>
+  </si>
+  <si>
+    <t>Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>EKS</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>EFS</t>
+  </si>
+  <si>
+    <t>AWS SHIELD</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>AWS TRUSTED ADVISOR</t>
+  </si>
+  <si>
+    <t>GLOBAL ACCELERATOR</t>
+  </si>
+  <si>
+    <t>SYSTEMS MANAGER</t>
+  </si>
+  <si>
+    <t>ELASTIC SEARCH</t>
+  </si>
+  <si>
+    <t>COGNITO</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>SNI</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>VPC ENDPOINT</t>
+  </si>
+  <si>
+    <t>AWS PRIVATE LINK</t>
+  </si>
+  <si>
+    <t>INSPECTOR</t>
+  </si>
+  <si>
+    <t>REDSHIFT</t>
+  </si>
+  <si>
+    <t>CODE COMMIT</t>
+  </si>
+  <si>
+    <t>CODE BUILD</t>
+  </si>
+  <si>
+    <t>CODE DEPLOY</t>
+  </si>
+  <si>
+    <t>CODE PIPELINE</t>
+  </si>
+  <si>
+    <t>AWS ORGANIZATIONS</t>
+  </si>
+  <si>
+    <t>SECTION</t>
+  </si>
+  <si>
+    <t>AWS 2 SEC</t>
+  </si>
+  <si>
+    <t>TOPICS</t>
+  </si>
+  <si>
+    <t>NEW COURSES GO THROUGH</t>
+  </si>
+  <si>
+    <t>JIRA, TROUBLESHOOTING K8S, RESUME POINTS FOR JIRA</t>
+  </si>
+  <si>
+    <t>AWS Regions &amp; AZ</t>
+  </si>
+  <si>
+    <t>K8S - RJS, ROCKING SYSTEM DESIGN - RJS, AWS VPC TG</t>
+  </si>
+  <si>
+    <t>AWS ACCOUNT MANAGEMENT</t>
+  </si>
+  <si>
+    <t>DEVSECOPS , AWS EKS BY KRD, ULTIMATE CKA, COMPLETE K8S</t>
+  </si>
+  <si>
+    <t>INTERVIEW QUESTIONS GATHER &amp; FORMAT</t>
+  </si>
+  <si>
+    <t>ALL YT CHANNELS - INTERVIEW QUESTIONS, AWS START</t>
+  </si>
+  <si>
+    <t>CLOUDWATCH</t>
+  </si>
+  <si>
+    <t>DEVOPS LEVEL UP 360 - ANSHUL CHAUHAN</t>
+  </si>
+  <si>
+    <t>7.1 AWS</t>
+  </si>
+  <si>
+    <t>DATABASE RDS, DYNAMODB</t>
+  </si>
+  <si>
+    <t>7.2 AWS</t>
+  </si>
+  <si>
+    <t>CACHING</t>
+  </si>
+  <si>
+    <t>5.1 TERRAFORM (SECTIONS 48 - 57) LEARN ABOUT NEW VERSION 1.1</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>CLOUDFRONT</t>
+  </si>
+  <si>
+    <t>EC2 INSTANCE STORAGE</t>
+  </si>
+  <si>
+    <t>5.2 TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>5.3 TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>HIGH AVAILABILITY</t>
+  </si>
+  <si>
+    <t>KIDS/STUDY</t>
+  </si>
+  <si>
+    <t>5.4 TERRAFORM (SECTIONS 48 - 57)</t>
+  </si>
+  <si>
+    <t>6.1 ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>ROUTE53</t>
+  </si>
+  <si>
+    <t>6.2 ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>SECURITY</t>
+  </si>
+  <si>
+    <t>6.3 ANSIBLE (SECTIONS 63 - 78)</t>
+  </si>
+  <si>
+    <t>DISASTER RECOVERY</t>
+  </si>
+  <si>
+    <t>1.1 GIT (SECTIONS 1 - 7)</t>
+  </si>
+  <si>
+    <t>SERVERLESS</t>
+  </si>
+  <si>
+    <t>1.2 GIT (SECTIONS 1 - 7)</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE VIDEOS</t>
+  </si>
+  <si>
+    <t>2.1 JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>CLOUD FORMATION</t>
+  </si>
+  <si>
+    <t>2.2 JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>2.3 JENKINS (SECTIONS 8 - 19)</t>
+  </si>
+  <si>
+    <t>3.1 MAVEN, SONARQUBE, JFROG INTEGRATION (SECTION 47), APACHE H, TC,NGX</t>
+  </si>
+  <si>
+    <t>3.2 DOCKER (SECTIONS 20 - 31)</t>
+  </si>
+  <si>
+    <t>3.3 DOCKER (SECTIONS 20 - 31)</t>
+  </si>
+  <si>
+    <t>4.1 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.2 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.3 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.4 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.5 KUBERNETES (SECTIONS 32 - 46)</t>
+  </si>
+  <si>
+    <t>4.6 DEVSECOPS [UPDATE ALL THE JENKINS PLUGINS USED] - USEFUL FOR BUILD FAILURES</t>
+  </si>
+  <si>
+    <t>4.7 INTEGRATING ALL THE DEVSECOPS TOOLS WITH JENKINS AND WRITING JENKINS FILE.</t>
+  </si>
+  <si>
+    <t>4.8 ISTIO - ALL DEVSECOPS</t>
+  </si>
+  <si>
+    <t>PROJECTS &amp; UPLOAD GIT HUB</t>
+  </si>
+  <si>
+    <t>REVISION</t>
+  </si>
+  <si>
+    <t>JOB SCENARIO (SECTION 58 - 62)</t>
+  </si>
+  <si>
+    <t>TERRAFORM KALYAN REDDY</t>
+  </si>
+  <si>
+    <t>SIMPLE DEVOPS AR REDDY</t>
+  </si>
+  <si>
+    <t>DPT PROJECT PR REDDY</t>
+  </si>
+  <si>
+    <t>RESUME UPLOAD</t>
+  </si>
+  <si>
+    <t>SERVICE USAGE</t>
+  </si>
+  <si>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE AS CODE</t>
+  </si>
+  <si>
+    <t>AWS CLOUD FORMATION</t>
+  </si>
+  <si>
+    <t>ARM TEMPLATES</t>
+  </si>
+  <si>
+    <t>AUDIT AND COMPLAINCE</t>
+  </si>
+  <si>
+    <t>AWS CONFIG</t>
+  </si>
+  <si>
+    <t>AZURE POLICY</t>
+  </si>
+  <si>
+    <t>TRACKING USERS ACTIVITIES &amp; API USAGE</t>
+  </si>
+  <si>
+    <t>AWS CLOUD TRAIL</t>
+  </si>
+  <si>
+    <t>AUDIT/SIGN-IN LOGS</t>
+  </si>
+  <si>
+    <t>MONITORING CLOUD RESOURCES</t>
+  </si>
+  <si>
+    <t>AWS CLOUDWATCH</t>
+  </si>
+  <si>
+    <t>AZURE MONITOR</t>
+  </si>
+  <si>
+    <t>TRACE API CALLS &amp; HTTP REQUESTS</t>
+  </si>
+  <si>
+    <t>AWS X-RAY</t>
+  </si>
+  <si>
+    <t>CI/CD TOOLS</t>
+  </si>
+  <si>
+    <t>AWS CODE COMMIT (GITHUB)</t>
+  </si>
+  <si>
+    <t>AWS CODE BUILD (JENKINS)</t>
+  </si>
+  <si>
+    <t>AWS CODE DEPLOY (AUTOMATED DEPLOY)</t>
+  </si>
+  <si>
+    <t>AWS CODE PIPELINE (ORCHESTRATION OF ABOVE-3)</t>
+  </si>
+  <si>
+    <t>AUTHENTICATION &amp; AUTHORIZATION</t>
+  </si>
+  <si>
+    <t>AWS IAM</t>
+  </si>
+  <si>
+    <t>AZURE AD</t>
+  </si>
+  <si>
+    <t>PROVIDING TEMPORARY CREDENTIALS</t>
+  </si>
+  <si>
+    <t>AWS STS</t>
+  </si>
+  <si>
+    <t>AZURE SUBSCRIPTION</t>
+  </si>
+  <si>
+    <t>CONTENT DELIVERY NETWORK (CDN)</t>
+  </si>
+  <si>
+    <t>AWS CLOUDFRONT</t>
+  </si>
+  <si>
+    <t>AZURE CDN</t>
+  </si>
+  <si>
+    <t>AWS GLOBAL ACCELERATOR</t>
+  </si>
+  <si>
+    <t>NETWORKING INFRASTRUCTURE</t>
+  </si>
+  <si>
+    <t>AWS VPC</t>
+  </si>
+  <si>
+    <t>AZURE VNET</t>
+  </si>
+  <si>
+    <t>DDOS PROTECTION</t>
+  </si>
+  <si>
+    <t>AZURE DDOS</t>
+  </si>
+  <si>
+    <t>WEB APPLICATION FIREWALL</t>
+  </si>
+  <si>
+    <t>AWS WAF</t>
+  </si>
+  <si>
+    <t>SECURITY ASSESSMENT SERVICE</t>
+  </si>
+  <si>
+    <t>AWS INSPECTOR</t>
+  </si>
+  <si>
+    <t>AZURE SECURITY</t>
+  </si>
+  <si>
+    <t>AZURE ADVISOR</t>
+  </si>
+  <si>
+    <t>AWS GAURD DUTY</t>
+  </si>
+  <si>
+    <t>ACCESS KEYS / EXCRYPTION</t>
+  </si>
+  <si>
+    <t>AWS KMS</t>
+  </si>
+  <si>
+    <t>AZURE KEY VAULT</t>
+  </si>
+  <si>
+    <t>AWS SECRETS MANAGER</t>
+  </si>
+  <si>
+    <t>OBJECT STORAGE</t>
+  </si>
+  <si>
+    <t>AWS S3</t>
+  </si>
+  <si>
+    <t>AZURE STORAGE</t>
+  </si>
+  <si>
+    <t>OBJECT ARCHIVE</t>
+  </si>
+  <si>
+    <t>AWS S3 GLACIER</t>
+  </si>
+  <si>
+    <t>AZURE ARCHIVE</t>
+  </si>
+  <si>
+    <t>LOAD BALANCERS</t>
+  </si>
+  <si>
+    <t>AWS ELB (ALB, NLB, GLB)</t>
+  </si>
+  <si>
+    <t>AZURE LOAD BALANCERS (SLB, ALB, AFD, ATM)</t>
+  </si>
+  <si>
+    <t>DISK STORAGE</t>
+  </si>
+  <si>
+    <t>AWS EBS</t>
+  </si>
+  <si>
+    <t>AZURE MANAGED DISK STORAGE</t>
+  </si>
+  <si>
+    <t>TABLE DATA STORAGE</t>
+  </si>
+  <si>
+    <t>AWS RDS</t>
+  </si>
+  <si>
+    <t>AZURE SQL</t>
+  </si>
+  <si>
+    <t>DATABASE CACHE</t>
+  </si>
+  <si>
+    <t>AWS ELASTICACHE</t>
+  </si>
+  <si>
+    <t>AZURE REDISCACHE</t>
+  </si>
+  <si>
+    <t>NO TABLE SQL DB</t>
+  </si>
+  <si>
+    <t>AWS DYNAMODB</t>
+  </si>
+  <si>
+    <t>AZURE COSMOS DB</t>
+  </si>
+  <si>
+    <t>DATABASE QUERY ENGINE</t>
+  </si>
+  <si>
+    <t>AWS ATHENA</t>
+  </si>
+  <si>
+    <t>AZURE LOG ANALYTICS WORKSPACE</t>
+  </si>
+  <si>
+    <t>DATABASE SEARCH</t>
+  </si>
+  <si>
+    <t>AWS ELATICSEARCH (ELK STACK)</t>
+  </si>
+  <si>
+    <t>DATABASE VISUALIZATION</t>
+  </si>
+  <si>
+    <t>AWS KIBANA (ELK STACK)</t>
+  </si>
+  <si>
+    <t>DATABASE LOG INGESTION</t>
+  </si>
+  <si>
+    <t>AWS LOGSTASH (ELK STACK)</t>
+  </si>
+  <si>
+    <t>SERVICE QUOTAS</t>
+  </si>
+  <si>
+    <t>AWS SERVICE LIMITS</t>
+  </si>
+  <si>
+    <t>INSTANCE ELASTICITY</t>
+  </si>
+  <si>
+    <t>AWS AUTOSCALING GROUP ASG</t>
+  </si>
+  <si>
+    <t>AZURE VMSS</t>
+  </si>
+  <si>
+    <t>AWS BACKUP</t>
+  </si>
+  <si>
+    <t>AZURE BACKUP</t>
+  </si>
+  <si>
+    <t>AZURE SITE RECOVERY</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>AWS ROUTE 53</t>
+  </si>
+  <si>
+    <t>AZURE DNS</t>
+  </si>
+  <si>
+    <t>AZURE FUNCTIONS</t>
+  </si>
+  <si>
+    <t>DATA MIGRATION</t>
+  </si>
+  <si>
+    <t>AWS SNOWBALL</t>
+  </si>
+  <si>
+    <t>AZURE STORAGE TRANSFER (NEED TO CHECK)</t>
+  </si>
+  <si>
+    <t>COST OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>AWS BUDGETS</t>
+  </si>
+  <si>
+    <t>AWS COST AND USAGE REPORT</t>
+  </si>
+  <si>
+    <t>AZURE COST ANALYSIS</t>
+  </si>
+  <si>
+    <t>AWS COST EXPLORER</t>
+  </si>
+  <si>
+    <t>AZURE PRICING CALCULATOR</t>
+  </si>
+  <si>
+    <t>SERVERLESS VISUAL WORKFLOW</t>
+  </si>
+  <si>
+    <t>AWS STEP FUNCTIONS</t>
+  </si>
+  <si>
+    <t>ANALYSE &amp; PROCESS BIG DATA</t>
+  </si>
+  <si>
+    <t>AWS EMR</t>
+  </si>
+  <si>
+    <t>DATA TRANFORM</t>
+  </si>
+  <si>
+    <t>AWS GLUE</t>
+  </si>
+  <si>
+    <t>SOFTWARE &amp; CONFIGURATION MGMT</t>
+  </si>
+  <si>
+    <t>AWS OPSWORKS</t>
+  </si>
+  <si>
+    <t>MANAGED CLOUD DESKTOP</t>
+  </si>
+  <si>
+    <t>AWS WORKSPACES</t>
+  </si>
+  <si>
+    <t>AZURE VDI</t>
+  </si>
+  <si>
+    <t>ALERT</t>
+  </si>
+  <si>
+    <t>AWS SNS</t>
+  </si>
+  <si>
+    <t>DATA STREAM ANALYSYS</t>
+  </si>
+  <si>
+    <t>AWS KINESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSAGE QUEUE </t>
+  </si>
+  <si>
+    <t>AWS SQS</t>
+  </si>
+  <si>
+    <t>MIGRATION</t>
+  </si>
+  <si>
+    <t>AWS DMS</t>
+  </si>
+  <si>
+    <t>AZURE MIGRATIONS</t>
+  </si>
+  <si>
+    <t>WEB IDENTITY FEDERATION</t>
+  </si>
+  <si>
+    <t>AWS COGNITO</t>
+  </si>
+  <si>
+    <t>AZURE B2C</t>
+  </si>
+  <si>
+    <t>CONTAINER SERVICE</t>
+  </si>
+  <si>
+    <t>AWS ECS</t>
+  </si>
+  <si>
+    <t>CONTAINER IMAGE REGISTRY</t>
+  </si>
+  <si>
+    <t>AWS ECR</t>
+  </si>
+  <si>
+    <t>MANAGED KUBERNETES</t>
+  </si>
+  <si>
+    <t>AWS EKS</t>
+  </si>
+  <si>
+    <t>WEBAPP</t>
+  </si>
+  <si>
+    <t>AWS ELASTIC BEANSTALK</t>
+  </si>
+  <si>
+    <t>AZURE WEBAPPS</t>
+  </si>
+  <si>
+    <t>TO-DO/INTERVIEW PREPERATION.</t>
+  </si>
+  <si>
+    <t>STUDY THE FULL DEVOPS DAY TO DAY RESPONSIBILITIES EDUREKA YT VIDEO. VERY HELP FULL FOR INTERVIEW.</t>
+  </si>
+  <si>
+    <t>BE EXPERT WITH THE FILES THAT I AM UPLOADING IN THE GITHUB.</t>
+  </si>
+  <si>
+    <t>BE EXPERT WITH TERRAFORM FILES UPLOADED AND TERRAFORM FULL PROJ, TERRAFORM IAC DEVOPS PROJ. INTERVIEWER MAY ASK AND MUST BE ABLE TO TELL THEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALSO TRY TO MAKE SURE THE CODE IS RUNNING. KEEP SPECIAL FOCUS FROM SECTION 13. </t>
+  </si>
+  <si>
+    <t>API GATEWAY</t>
+  </si>
+  <si>
+    <t>Free DevOps Interview, 50 DevOps Interview - Raghunandana, YT Interview Questions - Note Down - Plan how exactly would be the interview</t>
+  </si>
+  <si>
+    <t>DevOps MasterClass - Section 32 till End</t>
+  </si>
+  <si>
+    <t>DPT Videos</t>
+  </si>
+  <si>
+    <t>AWS All Services Mentioned in Resume Preperation for Mindtree Job Role</t>
+  </si>
+  <si>
+    <t>AWS Ranga Karnam, Rocky System - Raj, AWS - SAA, SOP Stephane Maarek</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>By this time Understand All DevOps Process</t>
+  </si>
+  <si>
+    <t>Interview Questions</t>
+  </si>
+  <si>
+    <t>work on interview links &amp; watch interview videos only till 14th.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from 15 start the full process. </t>
+  </si>
+  <si>
+    <t>Once all the courses are read, now go through the interview questions and study there and for referrences go through courses.</t>
+  </si>
+  <si>
+    <t>how to deploy application in kubernetes</t>
+  </si>
+  <si>
+    <t>No Sleep for 75 Days</t>
+  </si>
+  <si>
+    <t>No Thinking of women and making stories</t>
+  </si>
+  <si>
+    <t>concentrate on each video.</t>
+  </si>
+  <si>
+    <t>concentrate and study all interview questions.</t>
+  </si>
+  <si>
+    <t>Attempt interview and get a job.</t>
+  </si>
+  <si>
+    <t>DEEKSHIT SN YT CHANNEL</t>
+  </si>
+  <si>
+    <t>DEVOPS MADE EASY YT CHANNEL</t>
+  </si>
+  <si>
+    <t>VALAXY TECH YT CHANNEL</t>
+  </si>
+  <si>
+    <t>DEVOPS4SOLUTIONS YT CHANNEL</t>
+  </si>
+  <si>
+    <t>BALAJI TUTORIALS YT CHANNEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2198,8 +3122,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2242,8 +3201,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2266,12 +3237,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,7 +3352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2344,8 +3373,81 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2634,7 +3736,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="Q28" sqref="Q28:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +4077,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C9">
         <v>90402</v>
@@ -3085,7 +4187,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C12">
         <f>(C1-C11)</f>
@@ -3190,11 +4292,8 @@
       <c r="J15">
         <v>44</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="X15" t="s">
         <v>618</v>
-      </c>
-      <c r="X15" t="s">
-        <v>619</v>
       </c>
       <c r="Y15">
         <v>550000</v>
@@ -3202,7 +4301,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -3216,17 +4315,8 @@
       <c r="J16">
         <v>45</v>
       </c>
-      <c r="O16" t="s">
-        <v>621</v>
-      </c>
-      <c r="P16">
-        <v>14</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>622</v>
-      </c>
       <c r="X16" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Y16">
         <v>150000</v>
@@ -3241,7 +4331,7 @@
         <v>30828.61</v>
       </c>
       <c r="F17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -3255,19 +4345,10 @@
       <c r="J17">
         <v>46</v>
       </c>
-      <c r="O17" t="s">
-        <v>624</v>
-      </c>
-      <c r="P17">
-        <v>14</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -3280,24 +4361,6 @@
       </c>
       <c r="J18">
         <v>47</v>
-      </c>
-      <c r="L18" t="s">
-        <v>578</v>
-      </c>
-      <c r="M18" t="s">
-        <v>364</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>366</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>14</v>
       </c>
       <c r="Y18">
         <f>SUM(Y1:Y17)</f>
@@ -3306,13 +4369,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D19">
         <v>99500</v>
       </c>
       <c r="F19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -3325,24 +4388,6 @@
       </c>
       <c r="J19">
         <v>48</v>
-      </c>
-      <c r="L19" t="s">
-        <v>364</v>
-      </c>
-      <c r="M19" t="s">
-        <v>365</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>366</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -3358,25 +4403,10 @@
       <c r="J20">
         <v>49</v>
       </c>
-      <c r="L20" t="s">
-        <v>365</v>
-      </c>
-      <c r="M20" t="s">
-        <v>366</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>14</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D21">
         <f>SUM(D17:D20)</f>
@@ -3394,25 +4424,10 @@
       <c r="J21">
         <v>50</v>
       </c>
-      <c r="L21" t="s">
-        <v>366</v>
-      </c>
-      <c r="M21" t="s">
-        <v>367</v>
-      </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>475</v>
-      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D22">
         <v>90403</v>
@@ -3429,26 +4444,8 @@
       <c r="J22">
         <v>51</v>
       </c>
-      <c r="L22" t="s">
-        <v>628</v>
-      </c>
-      <c r="M22" t="s">
-        <v>595</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22">
-        <v>514</v>
-      </c>
       <c r="W22" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="X22" t="s">
         <v>364</v>
@@ -3459,7 +4456,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D23">
         <v>40000</v>
@@ -3476,26 +4473,8 @@
       <c r="J23">
         <v>52</v>
       </c>
-      <c r="L23" t="s">
-        <v>595</v>
-      </c>
-      <c r="M23" t="s">
-        <v>631</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>93</v>
-      </c>
-      <c r="T23">
-        <v>309</v>
-      </c>
       <c r="W23" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="X23" t="s">
         <v>365</v>
@@ -3506,7 +4485,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D24">
         <f>(D21-D22-D23)</f>
@@ -3524,17 +4503,8 @@
       <c r="J24">
         <v>53</v>
       </c>
-      <c r="L24" t="s">
-        <v>631</v>
-      </c>
-      <c r="M24" t="s">
-        <v>601</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
       <c r="W24" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="X24" t="s">
         <v>366</v>
@@ -3544,17 +4514,8 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P25">
-        <v>7</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>1457</v>
-      </c>
       <c r="W25" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="X25" t="s">
         <v>367</v>
@@ -3565,19 +4526,13 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D26">
         <v>99500</v>
       </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
       <c r="W26" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="X26" t="s">
         <v>595</v>
@@ -3587,12 +4542,6 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>34</v>
-      </c>
       <c r="X27" t="s">
         <v>598</v>
       </c>
@@ -3602,113 +4551,33 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D28">
         <f>SUM(D24:D27)</f>
         <v>99425.61</v>
       </c>
-      <c r="I28">
-        <v>90403</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>640</v>
-      </c>
-      <c r="L28">
-        <v>127661.86</v>
-      </c>
-      <c r="P28">
-        <v>7</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J29">
-        <v>25000</v>
-      </c>
-      <c r="K29" t="s">
-        <v>640</v>
-      </c>
-      <c r="L29">
-        <v>90403</v>
-      </c>
-      <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D30">
         <v>50000</v>
       </c>
-      <c r="J30">
-        <v>25000</v>
-      </c>
-      <c r="K30" t="s">
-        <v>640</v>
-      </c>
-      <c r="L30">
-        <f>(L28-L29)</f>
-        <v>37258.86</v>
-      </c>
-      <c r="P30">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J31">
-        <v>25000</v>
-      </c>
-      <c r="K31" t="s">
-        <v>640</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D32">
         <f>(D28-D30)</f>
         <v>49425.61</v>
       </c>
-      <c r="J32">
-        <v>15400</v>
-      </c>
-      <c r="K32" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P33">
-        <f>SUM(P16:P32)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B34" t="s">
         <v>586</v>
@@ -3717,9 +4586,9 @@
         <v>99500</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B35" t="s">
         <v>590</v>
@@ -3728,13 +4597,442 @@
         <v>99500</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36">
         <f>SUM(D32:D35)</f>
         <v>248425.61</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="129.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>937</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="51" t="s">
+        <v>940</v>
+      </c>
+      <c r="C5" t="s">
+        <v>938</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="D19" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="D23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="54" t="s">
+        <v>943</v>
+      </c>
+      <c r="D26" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="D27" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="D28" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="8"/>
+      <c r="D29" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="https://www.udemy.com/course/learn-devops-infrastructure-automation-with-terraform/"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://www.udemy.com/course/terraform-and-packer/"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6103,11 +7401,1872 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>44567</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="G2" s="37">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>44568</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="G3" s="39">
+        <v>2</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>44569</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G4" s="37">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>44570</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="G5" s="37">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>44571</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" s="27">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>44572</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="G7" s="27">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44573</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G8" s="27">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44574</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G9" s="27">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44575</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G10" s="27">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44576</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="G11" s="27">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44577</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="G12" s="27">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44578</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="G13" s="27">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44579</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="G14" s="27">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>44580</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G15" s="27">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44581</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="G16" s="27">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44582</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="G17" s="27">
+        <v>16</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44583</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="G18" s="27">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44584</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="G19" s="27">
+        <v>18</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44586</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>44587</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>44588</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>44589</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>44590</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>44591</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>44592</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>44594</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>44595</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>44596</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>44597</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>44598</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>792</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>44599</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>44600</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>44601</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>44602</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>44603</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>44604</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>44605</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>44606</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="45" t="s">
+        <v>793</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C6:C32"/>
+    <mergeCell ref="C33:C37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>29</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>30</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>31</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>32</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>33</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>34</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>34</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>35</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>36</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>37</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>38</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>39</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <v>40</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>41</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>42</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>43</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>44</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>45</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+      <c r="B60" t="s">
+        <v>930</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" t="s">
+        <v>931</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" t="s">
+        <v>932</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" t="s">
+        <v>933</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" t="s">
+        <v>934</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="K129" sqref="K129"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7974,12 +11133,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,7 +11188,7 @@
         <v>558</v>
       </c>
       <c r="D3" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8052,7 +11211,7 @@
         <v>558</v>
       </c>
       <c r="D4" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -8075,7 +11234,7 @@
         <v>559</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -9074,12 +12233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9092,45 +12251,46 @@
     <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="25"/>
-    <col min="11" max="11" width="106.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="100" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="8" t="s">
-        <v>704</v>
+      <c r="A1" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="15" t="s">
+        <v>694</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="35" t="s">
-        <v>709</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="61" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="8"/>
@@ -9143,34 +12303,34 @@
       <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="30">
         <v>44601</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="J2" s="32">
+      <c r="I2" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="J2" s="31">
         <v>1</v>
       </c>
-      <c r="K2" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>710</v>
+      <c r="K2" s="32" t="s">
+        <v>686</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -9181,34 +12341,32 @@
       <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>44602</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="J3" s="32">
+      <c r="I3" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="J3" s="31">
         <v>2</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>693</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>711</v>
+      <c r="K3" s="32"/>
+      <c r="L3" s="15" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E4" s="8">
         <v>2</v>
@@ -9219,31 +12377,29 @@
       <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>44603</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="J4" s="32">
+      <c r="I4" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="J4" s="31">
         <v>3</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>712</v>
+      <c r="K4" s="32"/>
+      <c r="L4" s="15" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>683</v>
+      <c r="A5" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>676</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8">
@@ -9255,34 +12411,32 @@
       <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>44604</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>698</v>
-      </c>
-      <c r="J5" s="32">
+      <c r="I5" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="J5" s="31">
         <v>4</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>713</v>
+      <c r="K5" s="32"/>
+      <c r="L5" s="15" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>684</v>
+      <c r="A6" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>677</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E6" s="8">
         <v>4</v>
@@ -9293,31 +12447,29 @@
       <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>44605</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="J6" s="32">
+      <c r="I6" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="J6" s="31">
         <v>5</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>714</v>
+      <c r="K6" s="32"/>
+      <c r="L6" s="15" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>675</v>
+      <c r="A7" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>668</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
@@ -9329,31 +12481,29 @@
       <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>44606</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>700</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="I7" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="J7" s="31">
         <v>6</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>715</v>
+      <c r="K7" s="32"/>
+      <c r="L7" s="15" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>676</v>
+      <c r="A8" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>669</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8">
@@ -9365,34 +12515,32 @@
       <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>44607</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="J8" s="32">
+      <c r="I8" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="J8" s="31">
         <v>7</v>
       </c>
-      <c r="K8" s="33" t="s">
-        <v>703</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>716</v>
+      <c r="K8" s="32"/>
+      <c r="L8" s="15" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>677</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E9" s="8">
         <v>930</v>
@@ -9403,30 +12551,32 @@
       <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>44608</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J9" s="30">
+      <c r="I9" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J9" s="29">
         <v>8</v>
       </c>
       <c r="K9" s="15"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="15" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E10" s="8">
         <v>1030</v>
@@ -9437,30 +12587,32 @@
       <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>44609</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J10" s="30">
+      <c r="I10" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J10" s="29">
         <v>9</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="15" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>495</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E11" s="8">
         <v>1130</v>
@@ -9471,27 +12623,29 @@
       <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>44610</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J11" s="30">
+      <c r="I11" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J11" s="29">
         <v>10</v>
       </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="15" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>680</v>
+      <c r="A12" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>673</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8">
@@ -9503,22 +12657,24 @@
       <c r="G12" s="8">
         <v>11</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>44611</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J12" s="30">
+      <c r="I12" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J12" s="29">
         <v>11</v>
       </c>
       <c r="K12" s="15"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="15" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="8"/>
@@ -9531,17 +12687,19 @@
       <c r="G13" s="8">
         <v>12</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>44612</v>
       </c>
-      <c r="I13" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J13" s="30">
+      <c r="I13" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J13" s="29">
         <v>12</v>
       </c>
       <c r="K13" s="15"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="15" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -9557,76 +12715,84 @@
       <c r="G14" s="8">
         <v>13</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="28">
         <v>44613</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J14" s="30">
+      <c r="I14" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J14" s="29">
         <v>13</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="15" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <v>44614</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J15" s="30">
+      <c r="I15" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J15" s="29">
         <v>14</v>
       </c>
       <c r="K15" s="15"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="15" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>364</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <v>44615</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J16" s="30">
+      <c r="I16" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J16" s="29">
         <v>15</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="15" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>44616</v>
       </c>
-      <c r="I17" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J17" s="30">
+      <c r="I17" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J17" s="29">
         <v>16</v>
       </c>
       <c r="K17" s="15"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="15" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -9634,216 +12800,238 @@
         <v>490</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="H18" s="29">
+      <c r="H18" s="28">
         <v>44617</v>
       </c>
-      <c r="I18" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J18" s="30">
+      <c r="I18" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J18" s="29">
         <v>17</v>
       </c>
       <c r="K18" s="15"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="15" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="H19" s="29">
+      <c r="H19" s="28">
         <v>44618</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J19" s="30">
+      <c r="I19" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J19" s="29">
         <v>18</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="15" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="H20" s="29">
+      <c r="H20" s="28">
         <v>44619</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J20" s="30">
+      <c r="I20" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J20" s="29">
         <v>19</v>
       </c>
       <c r="K20" s="15"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="15" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>44620</v>
       </c>
-      <c r="I21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J21" s="30">
+      <c r="I21" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J21" s="29">
         <v>20</v>
       </c>
       <c r="K21" s="15"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="15" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="H22" s="29">
+      <c r="H22" s="28">
         <v>44621</v>
       </c>
-      <c r="I22" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J22" s="30">
+      <c r="I22" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J22" s="29">
         <v>21</v>
       </c>
       <c r="K22" s="15"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="15" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>567</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>44622</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J23" s="30">
+      <c r="I23" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J23" s="29">
         <v>22</v>
       </c>
       <c r="K23" s="15"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="15" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>568</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="H24" s="29">
+      <c r="H24" s="28">
         <v>44623</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J24" s="30">
+      <c r="I24" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J24" s="29">
         <v>23</v>
       </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="15" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>569</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>44624</v>
       </c>
-      <c r="I25" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J25" s="30">
+      <c r="I25" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J25" s="29">
         <v>24</v>
       </c>
       <c r="K25" s="15"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="15" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>44625</v>
       </c>
-      <c r="I26" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J26" s="30">
+      <c r="I26" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J26" s="29">
         <v>25</v>
       </c>
       <c r="K26" s="15"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="15" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <v>44626</v>
       </c>
-      <c r="I27" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J27" s="30">
+      <c r="I27" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J27" s="29">
         <v>26</v>
       </c>
       <c r="K27" s="15"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="15" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>558</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="H28" s="29">
+      <c r="H28" s="28">
         <v>44627</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J28" s="30">
+      <c r="I28" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J28" s="29">
         <v>27</v>
       </c>
       <c r="K28" s="15"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="15" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -9852,17 +13040,19 @@
         <v>559</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>44628</v>
       </c>
-      <c r="I29" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J29" s="30">
+      <c r="I29" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J29" s="29">
         <v>28</v>
       </c>
       <c r="K29" s="15"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="15" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -9871,17 +13061,19 @@
         <v>560</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <v>44629</v>
       </c>
-      <c r="I30" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J30" s="30">
+      <c r="I30" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J30" s="29">
         <v>29</v>
       </c>
       <c r="K30" s="15"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="15" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -9890,17 +13082,19 @@
         <v>561</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>44630</v>
       </c>
-      <c r="I31" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J31" s="30">
+      <c r="I31" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J31" s="29">
         <v>30</v>
       </c>
       <c r="K31" s="15"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="15" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -9909,17 +13103,19 @@
         <v>562</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <v>44631</v>
       </c>
-      <c r="I32" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J32" s="30">
+      <c r="I32" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J32" s="29">
         <v>31</v>
       </c>
       <c r="K32" s="15"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="15" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -9928,17 +13124,19 @@
         <v>563</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>44632</v>
       </c>
-      <c r="I33" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J33" s="30">
+      <c r="I33" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J33" s="29">
         <v>32</v>
       </c>
       <c r="K33" s="15"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="15" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -9947,553 +13145,578 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>44633</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J34" s="30">
+      <c r="I34" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J34" s="29">
         <v>33</v>
       </c>
       <c r="K34" s="15"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="15" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <v>44634</v>
       </c>
-      <c r="I35" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J35" s="30">
+      <c r="I35" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J35" s="29">
         <v>34</v>
       </c>
       <c r="K35" s="15"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="15" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>365</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="H36" s="29">
+      <c r="H36" s="28">
         <v>44635</v>
       </c>
-      <c r="I36" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J36" s="30">
+      <c r="I36" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J36" s="29">
         <v>35</v>
       </c>
       <c r="K36" s="15"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="15" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>44636</v>
       </c>
-      <c r="I37" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J37" s="30">
+      <c r="I37" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J37" s="29">
         <v>36</v>
       </c>
       <c r="K37" s="15"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="15" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>44637</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J38" s="30">
+      <c r="I38" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J38" s="29">
         <v>37</v>
       </c>
       <c r="K38" s="15"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="15" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <v>44638</v>
       </c>
-      <c r="I39" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J39" s="30">
+      <c r="I39" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J39" s="29">
         <v>38</v>
       </c>
       <c r="K39" s="15"/>
-      <c r="L39" s="8"/>
+      <c r="L39" s="15" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>654</v>
-      </c>
-      <c r="H40" s="29">
+        <v>647</v>
+      </c>
+      <c r="H40" s="28">
         <v>44639</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J40" s="30">
+      <c r="I40" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J40" s="29">
         <v>39</v>
       </c>
       <c r="K40" s="15"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="15" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>655</v>
-      </c>
-      <c r="H41" s="29">
+        <v>648</v>
+      </c>
+      <c r="H41" s="28">
         <v>44640</v>
       </c>
-      <c r="I41" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J41" s="30">
+      <c r="I41" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J41" s="29">
         <v>40</v>
       </c>
       <c r="K41" s="15"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="15" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="29">
+      <c r="H42" s="28">
         <v>44641</v>
       </c>
-      <c r="I42" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J42" s="30">
+      <c r="I42" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J42" s="29">
         <v>41</v>
       </c>
       <c r="K42" s="15"/>
+      <c r="L42" s="34" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H43" s="29">
+      <c r="H43" s="28">
         <v>44642</v>
       </c>
-      <c r="I43" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J43" s="30">
+      <c r="I43" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J43" s="29">
         <v>42</v>
       </c>
       <c r="K43" s="15"/>
+      <c r="L43" s="34" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H44" s="29">
+      <c r="H44" s="28">
         <v>44643</v>
       </c>
-      <c r="I44" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J44" s="30">
+      <c r="I44" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J44" s="29">
         <v>43</v>
       </c>
       <c r="K44" s="15"/>
+      <c r="L44" s="34" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H45" s="29">
+      <c r="H45" s="28">
         <v>44644</v>
       </c>
-      <c r="I45" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J45" s="30">
+      <c r="I45" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J45" s="29">
         <v>44</v>
       </c>
       <c r="K45" s="15"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H46" s="29">
+      <c r="H46" s="28">
         <v>44645</v>
       </c>
-      <c r="I46" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J46" s="30">
+      <c r="I46" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J46" s="29">
         <v>45</v>
       </c>
       <c r="K46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H47" s="29">
+      <c r="H47" s="28">
         <v>44646</v>
       </c>
-      <c r="I47" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J47" s="30">
+      <c r="I47" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J47" s="29">
         <v>46</v>
       </c>
       <c r="K47" s="15"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H48" s="29">
+      <c r="H48" s="28">
         <v>44647</v>
       </c>
-      <c r="I48" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J48" s="30">
+      <c r="I48" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J48" s="29">
         <v>47</v>
       </c>
       <c r="K48" s="15"/>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H49" s="29">
+      <c r="H49" s="28">
         <v>44648</v>
       </c>
-      <c r="I49" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J49" s="30">
+      <c r="I49" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J49" s="29">
         <v>48</v>
       </c>
       <c r="K49" s="15"/>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H50" s="29">
+      <c r="H50" s="28">
         <v>44649</v>
       </c>
-      <c r="I50" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J50" s="30">
+      <c r="I50" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J50" s="29">
         <v>49</v>
       </c>
       <c r="K50" s="15"/>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H51" s="29">
+      <c r="H51" s="28">
         <v>44650</v>
       </c>
-      <c r="I51" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J51" s="30">
+      <c r="I51" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J51" s="29">
         <v>50</v>
       </c>
       <c r="K51" s="15"/>
     </row>
     <row r="52" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H52" s="29">
+      <c r="H52" s="28">
         <v>44651</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J52" s="30">
+      <c r="I52" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J52" s="29">
         <v>51</v>
       </c>
       <c r="K52" s="15"/>
     </row>
     <row r="53" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H53" s="29">
+      <c r="H53" s="28">
         <v>44652</v>
       </c>
-      <c r="I53" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J53" s="30">
+      <c r="I53" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J53" s="29">
         <v>52</v>
       </c>
       <c r="K53" s="15"/>
     </row>
     <row r="54" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H54" s="29">
+      <c r="H54" s="28">
         <v>44653</v>
       </c>
-      <c r="I54" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J54" s="30">
+      <c r="I54" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J54" s="29">
         <v>53</v>
       </c>
       <c r="K54" s="15"/>
     </row>
     <row r="55" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H55" s="29">
+      <c r="H55" s="28">
         <v>44654</v>
       </c>
-      <c r="I55" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J55" s="30">
+      <c r="I55" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J55" s="29">
         <v>54</v>
       </c>
       <c r="K55" s="15"/>
     </row>
     <row r="56" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H56" s="29">
+      <c r="H56" s="28">
         <v>44655</v>
       </c>
-      <c r="I56" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J56" s="30">
+      <c r="I56" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J56" s="29">
         <v>55</v>
       </c>
       <c r="K56" s="15"/>
     </row>
     <row r="57" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H57" s="29">
+      <c r="H57" s="28">
         <v>44656</v>
       </c>
-      <c r="I57" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J57" s="30">
+      <c r="I57" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J57" s="29">
         <v>56</v>
       </c>
       <c r="K57" s="15"/>
     </row>
     <row r="58" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H58" s="29">
+      <c r="H58" s="28">
         <v>44657</v>
       </c>
-      <c r="I58" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J58" s="30">
+      <c r="I58" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J58" s="29">
         <v>57</v>
       </c>
       <c r="K58" s="15"/>
     </row>
     <row r="59" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H59" s="29">
+      <c r="H59" s="28">
         <v>44658</v>
       </c>
-      <c r="I59" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J59" s="30">
+      <c r="I59" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J59" s="29">
         <v>58</v>
       </c>
       <c r="K59" s="15"/>
     </row>
     <row r="60" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H60" s="29">
+      <c r="H60" s="28">
         <v>44659</v>
       </c>
-      <c r="I60" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J60" s="30">
+      <c r="I60" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J60" s="29">
         <v>59</v>
       </c>
       <c r="K60" s="15"/>
     </row>
     <row r="61" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H61" s="29">
+      <c r="H61" s="28">
         <v>44660</v>
       </c>
-      <c r="I61" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J61" s="30">
+      <c r="I61" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J61" s="29">
         <v>60</v>
       </c>
       <c r="K61" s="15"/>
     </row>
     <row r="62" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H62" s="29">
+      <c r="H62" s="28">
         <v>44661</v>
       </c>
-      <c r="I62" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J62" s="30">
+      <c r="I62" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J62" s="29">
         <v>61</v>
       </c>
       <c r="K62" s="15"/>
     </row>
     <row r="63" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H63" s="29">
+      <c r="H63" s="28">
         <v>44662</v>
       </c>
-      <c r="I63" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J63" s="30">
+      <c r="I63" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J63" s="29">
         <v>62</v>
       </c>
       <c r="K63" s="15"/>
     </row>
     <row r="64" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H64" s="29">
+      <c r="H64" s="28">
         <v>44663</v>
       </c>
-      <c r="I64" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J64" s="30">
+      <c r="I64" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J64" s="29">
         <v>63</v>
       </c>
       <c r="K64" s="15"/>
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H65" s="29">
+      <c r="H65" s="28">
         <v>44664</v>
       </c>
-      <c r="I65" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J65" s="30">
+      <c r="I65" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J65" s="29">
         <v>64</v>
       </c>
       <c r="K65" s="15"/>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H66" s="29">
+      <c r="H66" s="28">
         <v>44665</v>
       </c>
-      <c r="I66" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J66" s="30">
+      <c r="I66" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J66" s="29">
         <v>65</v>
       </c>
       <c r="K66" s="15"/>
     </row>
     <row r="67" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H67" s="29">
+      <c r="H67" s="28">
         <v>44666</v>
       </c>
-      <c r="I67" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J67" s="30">
+      <c r="I67" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J67" s="29">
         <v>66</v>
       </c>
       <c r="K67" s="15"/>
     </row>
     <row r="68" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H68" s="29">
+      <c r="H68" s="28">
         <v>44667</v>
       </c>
-      <c r="I68" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J68" s="30">
+      <c r="I68" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J68" s="29">
         <v>67</v>
       </c>
       <c r="K68" s="15"/>
     </row>
     <row r="69" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H69" s="29">
+      <c r="H69" s="28">
         <v>44668</v>
       </c>
-      <c r="I69" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J69" s="30">
+      <c r="I69" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J69" s="29">
         <v>68</v>
       </c>
       <c r="K69" s="15"/>
     </row>
     <row r="70" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H70" s="29">
+      <c r="H70" s="28">
         <v>44669</v>
       </c>
-      <c r="I70" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="J70" s="30">
+      <c r="I70" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J70" s="29">
         <v>69</v>
       </c>
       <c r="K70" s="15"/>
     </row>
     <row r="71" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H71" s="29">
+      <c r="H71" s="28">
         <v>44670</v>
       </c>
-      <c r="I71" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="J71" s="30">
+      <c r="I71" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J71" s="29">
         <v>70</v>
       </c>
       <c r="K71" s="15"/>
     </row>
     <row r="72" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H72" s="29">
+      <c r="H72" s="28">
         <v>44671</v>
       </c>
-      <c r="I72" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="J72" s="30">
+      <c r="I72" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J72" s="29">
         <v>71</v>
       </c>
       <c r="K72" s="15"/>
     </row>
     <row r="73" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H73" s="29">
+      <c r="H73" s="28">
         <v>44672</v>
       </c>
-      <c r="I73" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="J73" s="30">
+      <c r="I73" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J73" s="29">
         <v>72</v>
       </c>
       <c r="K73" s="15"/>
     </row>
     <row r="74" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H74" s="29">
+      <c r="H74" s="28">
         <v>44673</v>
       </c>
-      <c r="I74" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="J74" s="30">
+      <c r="I74" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J74" s="29">
         <v>73</v>
       </c>
       <c r="K74" s="15"/>
     </row>
     <row r="75" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H75" s="29">
+      <c r="H75" s="28">
         <v>44674</v>
       </c>
-      <c r="I75" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="J75" s="30">
+      <c r="I75" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J75" s="29">
         <v>74</v>
       </c>
       <c r="K75" s="15"/>
     </row>
     <row r="76" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H76" s="29">
+      <c r="H76" s="28">
         <v>44675</v>
       </c>
-      <c r="I76" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="J76" s="30">
+      <c r="I76" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J76" s="29">
         <v>75</v>
       </c>
       <c r="K76" s="15"/>

--- a/AVK_DevOps_Plan1.xlsx
+++ b/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="960">
   <si>
     <t>LINUX</t>
   </si>
@@ -3301,7 +3301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3431,6 +3431,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4610,10 +4613,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,10 +4635,10 @@
       <c r="B1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="15" t="s">
         <v>694</v>
       </c>
@@ -4683,8 +4686,8 @@
       <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>939</v>
+      <c r="B4" s="52" t="s">
+        <v>567</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>685</v>
@@ -4701,8 +4704,8 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="51" t="s">
-        <v>940</v>
+      <c r="B5" s="52" t="s">
+        <v>568</v>
       </c>
       <c r="C5" t="s">
         <v>938</v>
@@ -4722,8 +4725,8 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>570</v>
+      <c r="B6" s="52" t="s">
+        <v>569</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>678</v>
@@ -4742,8 +4745,8 @@
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>567</v>
+      <c r="B7" s="8" t="s">
+        <v>570</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>658</v>
@@ -4760,8 +4763,8 @@
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>568</v>
+      <c r="B8" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>660</v>
@@ -4778,8 +4781,8 @@
       <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>569</v>
+      <c r="B9" s="8" t="s">
+        <v>572</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>662</v>
@@ -4799,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>664</v>
@@ -4819,7 +4822,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>666</v>
@@ -4839,7 +4842,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>676</v>
@@ -4860,7 +4863,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -4874,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,7 +4885,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4890,7 +4893,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D16" t="s">
         <v>946</v>
@@ -4901,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>563</v>
+        <v>955</v>
       </c>
       <c r="D17" t="s">
         <v>947</v>
@@ -4912,7 +4915,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>566</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,7 +4923,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D19" t="s">
         <v>948</v>
@@ -4931,7 +4934,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4939,7 +4942,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4947,7 +4950,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>958</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,7 +4958,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>959</v>
+        <v>495</v>
       </c>
       <c r="D23" t="s">
         <v>949</v>
@@ -4965,14 +4968,14 @@
       <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>564</v>
+      <c r="B24" s="54" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
-        <v>495</v>
+        <v>944</v>
       </c>
       <c r="D25" t="s">
         <v>950</v>
@@ -4980,8 +4983,8 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
-      <c r="B26" s="54" t="s">
-        <v>943</v>
+      <c r="B26" s="8" t="s">
+        <v>945</v>
       </c>
       <c r="D26" t="s">
         <v>951</v>
@@ -4989,18 +4992,14 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
-      <c r="B27" s="8" t="s">
-        <v>944</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="D27" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
-      <c r="B28" s="8" t="s">
-        <v>945</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="D28" t="s">
         <v>953</v>
       </c>
@@ -5024,14 +5023,26 @@
       <c r="A32" s="27"/>
       <c r="B32" s="8"/>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="51" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="s">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://www.udemy.com/course/learn-devops-infrastructure-automation-with-terraform/"/>
-    <hyperlink ref="B8" r:id="rId2" display="https://www.udemy.com/course/terraform-and-packer/"/>
-    <hyperlink ref="B9" r:id="rId3" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://www.udemy.com/course/terraform-and-packer/"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.udemy.com/course/learn-devops-infrastructure-automation-with-terraform/"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.udemy.com/course/terraform-and-packer/"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.udemy.com/course/terraform-indepth-with-7-realtime-casestudies/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7446,7 +7457,7 @@
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>744</v>
       </c>
       <c r="D2" s="36"/>
@@ -7476,7 +7487,7 @@
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="38"/>
       <c r="E3" s="12" t="s">
         <v>747</v>
@@ -7504,7 +7515,7 @@
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="38"/>
       <c r="E4" s="12" t="s">
         <v>749</v>
@@ -7562,7 +7573,7 @@
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>753</v>
       </c>
       <c r="D6" s="42"/>
@@ -7592,7 +7603,7 @@
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="42"/>
       <c r="E7" s="20" t="s">
         <v>756</v>
@@ -7620,7 +7631,7 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="43" t="s">
         <v>742</v>
       </c>
@@ -7650,7 +7661,7 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="43" t="s">
         <v>742</v>
       </c>
@@ -7680,7 +7691,7 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="43" t="s">
         <v>742</v>
       </c>
@@ -7710,7 +7721,7 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="43" t="s">
         <v>742</v>
       </c>
@@ -7740,7 +7751,7 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="43" t="s">
         <v>742</v>
       </c>
@@ -7770,7 +7781,7 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="43" t="s">
         <v>742</v>
       </c>
@@ -7800,7 +7811,7 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="43" t="s">
         <v>742</v>
       </c>
@@ -7830,7 +7841,7 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="43" t="s">
         <v>742</v>
       </c>
@@ -7860,7 +7871,7 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="43" t="s">
         <v>742</v>
       </c>
@@ -7890,7 +7901,7 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="43" t="s">
         <v>742</v>
       </c>
@@ -7920,7 +7931,7 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="43" t="s">
         <v>742</v>
       </c>
@@ -7950,7 +7961,7 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="43" t="s">
         <v>742</v>
       </c>
@@ -7980,7 +7991,7 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="43" t="s">
         <v>742</v>
       </c>
@@ -8004,7 +8015,7 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="43" t="s">
         <v>742</v>
       </c>
@@ -8028,7 +8039,7 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="43" t="s">
         <v>742</v>
       </c>
@@ -8052,7 +8063,7 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="43" t="s">
         <v>742</v>
       </c>
@@ -8076,7 +8087,7 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="43" t="s">
         <v>742</v>
       </c>
@@ -8100,7 +8111,7 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="43"/>
       <c r="E25" s="8" t="s">
         <v>784</v>
@@ -8122,7 +8133,7 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="43"/>
       <c r="E26" s="8" t="s">
         <v>785</v>
@@ -8137,7 +8148,7 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>786</v>
@@ -8152,7 +8163,7 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="43"/>
       <c r="E28" s="8" t="s">
         <v>787</v>
@@ -8167,7 +8178,7 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="43"/>
       <c r="E29" s="8" t="s">
         <v>788</v>
@@ -8182,7 +8193,7 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="43"/>
       <c r="E30" s="8" t="s">
         <v>789</v>
@@ -8197,7 +8208,7 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
         <v>790</v>
@@ -8212,7 +8223,7 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="43"/>
       <c r="E32" s="8" t="s">
         <v>791</v>
@@ -8227,7 +8238,7 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>792</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -8246,7 +8257,7 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="45" t="s">
         <v>793</v>
       </c>
@@ -8263,7 +8274,7 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="45" t="s">
         <v>793</v>
       </c>
@@ -8278,7 +8289,7 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="45" t="s">
         <v>793</v>
       </c>
@@ -8293,7 +8304,7 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="45" t="s">
         <v>793</v>
       </c>
@@ -12235,10 +12246,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12256,19 +12267,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="15" t="s">
         <v>694</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>698</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="27" t="s">
         <v>357</v>
       </c>
@@ -12309,9 +12320,6 @@
       <c r="I2" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="J2" s="31">
-        <v>1</v>
-      </c>
       <c r="K2" s="32" t="s">
         <v>686</v>
       </c>
@@ -12347,9 +12355,6 @@
       <c r="I3" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="J3" s="31">
-        <v>2</v>
-      </c>
       <c r="K3" s="32"/>
       <c r="L3" s="15" t="s">
         <v>700</v>
@@ -12383,9 +12388,6 @@
       <c r="I4" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="J4" s="31">
-        <v>3</v>
-      </c>
       <c r="K4" s="32"/>
       <c r="L4" s="15" t="s">
         <v>701</v>
@@ -12417,9 +12419,6 @@
       <c r="I5" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="J5" s="31">
-        <v>4</v>
-      </c>
       <c r="K5" s="32"/>
       <c r="L5" s="15" t="s">
         <v>702</v>
@@ -12453,9 +12452,6 @@
       <c r="I6" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="J6" s="31">
-        <v>5</v>
-      </c>
       <c r="K6" s="32"/>
       <c r="L6" s="15" t="s">
         <v>703</v>
@@ -12487,9 +12483,6 @@
       <c r="I7" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="J7" s="31">
-        <v>6</v>
-      </c>
       <c r="K7" s="32"/>
       <c r="L7" s="15" t="s">
         <v>704</v>
@@ -12522,7 +12515,7 @@
         <v>693</v>
       </c>
       <c r="J8" s="31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="15" t="s">
@@ -12557,8 +12550,8 @@
       <c r="I9" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="J9" s="29">
-        <v>8</v>
+      <c r="J9" s="31">
+        <v>2</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
@@ -12593,8 +12586,8 @@
       <c r="I10" s="28" t="s">
         <v>688</v>
       </c>
-      <c r="J10" s="29">
-        <v>9</v>
+      <c r="J10" s="31">
+        <v>3</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
@@ -12629,8 +12622,8 @@
       <c r="I11" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="J11" s="29">
-        <v>10</v>
+      <c r="J11" s="31">
+        <v>4</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
@@ -12663,8 +12656,8 @@
       <c r="I12" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="J12" s="29">
-        <v>11</v>
+      <c r="J12" s="31">
+        <v>5</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
@@ -12693,8 +12686,8 @@
       <c r="I13" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="J13" s="29">
-        <v>12</v>
+      <c r="J13" s="31">
+        <v>6</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
@@ -12721,8 +12714,8 @@
       <c r="I14" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="J14" s="29">
-        <v>13</v>
+      <c r="J14" s="31">
+        <v>7</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
@@ -12743,7 +12736,7 @@
         <v>693</v>
       </c>
       <c r="J15" s="29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
@@ -12766,7 +12759,7 @@
         <v>687</v>
       </c>
       <c r="J16" s="29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
@@ -12787,7 +12780,7 @@
         <v>688</v>
       </c>
       <c r="J17" s="29">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
@@ -12810,7 +12803,7 @@
         <v>689</v>
       </c>
       <c r="J18" s="29">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
@@ -12831,7 +12824,7 @@
         <v>690</v>
       </c>
       <c r="J19" s="29">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
@@ -12852,7 +12845,7 @@
         <v>691</v>
       </c>
       <c r="J20" s="29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
@@ -12875,7 +12868,7 @@
         <v>692</v>
       </c>
       <c r="J21" s="29">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
@@ -12896,7 +12889,7 @@
         <v>693</v>
       </c>
       <c r="J22" s="29">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
@@ -12917,7 +12910,7 @@
         <v>687</v>
       </c>
       <c r="J23" s="29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
@@ -12938,7 +12931,7 @@
         <v>688</v>
       </c>
       <c r="J24" s="29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
@@ -12959,7 +12952,7 @@
         <v>689</v>
       </c>
       <c r="J25" s="29">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
@@ -12982,7 +12975,7 @@
         <v>690</v>
       </c>
       <c r="J26" s="29">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
@@ -13003,7 +12996,7 @@
         <v>691</v>
       </c>
       <c r="J27" s="29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
@@ -13026,7 +13019,7 @@
         <v>692</v>
       </c>
       <c r="J28" s="29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
@@ -13047,7 +13040,7 @@
         <v>693</v>
       </c>
       <c r="J29" s="29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
@@ -13068,7 +13061,7 @@
         <v>687</v>
       </c>
       <c r="J30" s="29">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
@@ -13089,7 +13082,7 @@
         <v>688</v>
       </c>
       <c r="J31" s="29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
@@ -13110,7 +13103,7 @@
         <v>689</v>
       </c>
       <c r="J32" s="29">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
@@ -13131,7 +13124,7 @@
         <v>690</v>
       </c>
       <c r="J33" s="29">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
@@ -13152,7 +13145,7 @@
         <v>691</v>
       </c>
       <c r="J34" s="29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
@@ -13173,7 +13166,7 @@
         <v>692</v>
       </c>
       <c r="J35" s="29">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
@@ -13198,7 +13191,7 @@
         <v>693</v>
       </c>
       <c r="J36" s="29">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
@@ -13219,7 +13212,7 @@
         <v>687</v>
       </c>
       <c r="J37" s="29">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
@@ -13234,7 +13227,7 @@
         <v>688</v>
       </c>
       <c r="J38" s="29">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
@@ -13249,7 +13242,7 @@
         <v>689</v>
       </c>
       <c r="J39" s="29">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15" t="s">
@@ -13267,7 +13260,7 @@
         <v>690</v>
       </c>
       <c r="J40" s="29">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
@@ -13285,7 +13278,7 @@
         <v>691</v>
       </c>
       <c r="J41" s="29">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
@@ -13300,7 +13293,7 @@
         <v>692</v>
       </c>
       <c r="J42" s="29">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="34" t="s">
@@ -13315,7 +13308,7 @@
         <v>693</v>
       </c>
       <c r="J43" s="29">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="34" t="s">
@@ -13330,7 +13323,7 @@
         <v>687</v>
       </c>
       <c r="J44" s="29">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="34" t="s">
@@ -13345,7 +13338,7 @@
         <v>688</v>
       </c>
       <c r="J45" s="29">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K45" s="15"/>
     </row>
@@ -13357,7 +13350,7 @@
         <v>689</v>
       </c>
       <c r="J46" s="29">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K46" s="15"/>
     </row>
@@ -13369,7 +13362,7 @@
         <v>690</v>
       </c>
       <c r="J47" s="29">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K47" s="15"/>
     </row>
@@ -13381,7 +13374,7 @@
         <v>691</v>
       </c>
       <c r="J48" s="29">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K48" s="15"/>
     </row>
@@ -13393,7 +13386,7 @@
         <v>692</v>
       </c>
       <c r="J49" s="29">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K49" s="15"/>
     </row>
@@ -13405,7 +13398,7 @@
         <v>693</v>
       </c>
       <c r="J50" s="29">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K50" s="15"/>
     </row>
@@ -13417,7 +13410,7 @@
         <v>687</v>
       </c>
       <c r="J51" s="29">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K51" s="15"/>
     </row>
@@ -13429,7 +13422,7 @@
         <v>688</v>
       </c>
       <c r="J52" s="29">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K52" s="15"/>
     </row>
@@ -13441,7 +13434,7 @@
         <v>689</v>
       </c>
       <c r="J53" s="29">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K53" s="15"/>
     </row>
@@ -13453,7 +13446,7 @@
         <v>690</v>
       </c>
       <c r="J54" s="29">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K54" s="15"/>
     </row>
@@ -13465,7 +13458,7 @@
         <v>691</v>
       </c>
       <c r="J55" s="29">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K55" s="15"/>
     </row>
@@ -13477,7 +13470,7 @@
         <v>692</v>
       </c>
       <c r="J56" s="29">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K56" s="15"/>
     </row>
@@ -13489,7 +13482,7 @@
         <v>693</v>
       </c>
       <c r="J57" s="29">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K57" s="15"/>
     </row>
@@ -13501,7 +13494,7 @@
         <v>687</v>
       </c>
       <c r="J58" s="29">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K58" s="15"/>
     </row>
@@ -13513,7 +13506,7 @@
         <v>688</v>
       </c>
       <c r="J59" s="29">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K59" s="15"/>
     </row>
@@ -13525,7 +13518,7 @@
         <v>689</v>
       </c>
       <c r="J60" s="29">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K60" s="15"/>
     </row>
@@ -13537,7 +13530,7 @@
         <v>690</v>
       </c>
       <c r="J61" s="29">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K61" s="15"/>
     </row>
@@ -13549,7 +13542,7 @@
         <v>691</v>
       </c>
       <c r="J62" s="29">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K62" s="15"/>
     </row>
@@ -13561,7 +13554,7 @@
         <v>692</v>
       </c>
       <c r="J63" s="29">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K63" s="15"/>
     </row>
@@ -13573,7 +13566,7 @@
         <v>693</v>
       </c>
       <c r="J64" s="29">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K64" s="15"/>
     </row>
@@ -13585,7 +13578,7 @@
         <v>687</v>
       </c>
       <c r="J65" s="29">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K65" s="15"/>
     </row>
@@ -13597,7 +13590,7 @@
         <v>688</v>
       </c>
       <c r="J66" s="29">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K66" s="15"/>
     </row>
@@ -13609,7 +13602,7 @@
         <v>689</v>
       </c>
       <c r="J67" s="29">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K67" s="15"/>
     </row>
@@ -13621,7 +13614,7 @@
         <v>690</v>
       </c>
       <c r="J68" s="29">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K68" s="15"/>
     </row>
@@ -13633,7 +13626,7 @@
         <v>691</v>
       </c>
       <c r="J69" s="29">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K69" s="15"/>
     </row>
@@ -13645,7 +13638,7 @@
         <v>692</v>
       </c>
       <c r="J70" s="29">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K70" s="15"/>
     </row>
@@ -13657,7 +13650,7 @@
         <v>693</v>
       </c>
       <c r="J71" s="29">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K71" s="15"/>
     </row>
@@ -13669,7 +13662,7 @@
         <v>687</v>
       </c>
       <c r="J72" s="29">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K72" s="15"/>
     </row>
@@ -13681,7 +13674,7 @@
         <v>688</v>
       </c>
       <c r="J73" s="29">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K73" s="15"/>
     </row>
@@ -13693,7 +13686,7 @@
         <v>689</v>
       </c>
       <c r="J74" s="29">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K74" s="15"/>
     </row>
@@ -13705,7 +13698,7 @@
         <v>690</v>
       </c>
       <c r="J75" s="29">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K75" s="15"/>
     </row>
@@ -13717,9 +13710,105 @@
         <v>691</v>
       </c>
       <c r="J76" s="29">
+        <v>69</v>
+      </c>
+      <c r="K76" s="15"/>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H77" s="28">
+        <v>44676</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J77" s="29">
+        <v>70</v>
+      </c>
+      <c r="K77" s="15"/>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H78" s="28">
+        <v>44677</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="J78" s="29">
+        <v>71</v>
+      </c>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H79" s="28">
+        <v>44678</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="J79" s="29">
+        <v>72</v>
+      </c>
+      <c r="K79" s="15"/>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H80" s="28">
+        <v>44679</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J80" s="29">
+        <v>73</v>
+      </c>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H81" s="28">
+        <v>44680</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="J81" s="29">
+        <v>74</v>
+      </c>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H82" s="28">
+        <v>44681</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="J82" s="29">
         <v>75</v>
       </c>
-      <c r="K76" s="15"/>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H83" s="28">
+        <v>44682</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J83" s="55">
+        <v>76</v>
+      </c>
+      <c r="K83" s="15"/>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H84" s="28">
+        <v>44683</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="J84" s="55">
+        <v>77</v>
+      </c>
+      <c r="K84" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/AVK_DevOps_Plan1.xlsx
+++ b/AVK_DevOps_Plan1.xlsx
@@ -4616,7 +4616,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4801,7 @@
       <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="20" t="s">
         <v>559</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -4821,7 +4821,7 @@
       <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="20" t="s">
         <v>560</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -4841,7 +4841,7 @@
       <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="20" t="s">
         <v>558</v>
       </c>
       <c r="C12" s="53" t="s">
@@ -4862,7 +4862,7 @@
       <c r="A13" s="27">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="20" t="s">
         <v>561</v>
       </c>
       <c r="D13" s="15"/>
@@ -4876,7 +4876,7 @@
       <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="20" t="s">
         <v>562</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="A15" s="27">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="20" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       <c r="A16" s="27">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="20" t="s">
         <v>566</v>
       </c>
       <c r="D16" t="s">
@@ -12249,7 +12249,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H8" sqref="H8:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AVK_DevOps_Plan1.xlsx
+++ b/AVK_DevOps_Plan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="8" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="972">
   <si>
     <t>LINUX</t>
   </si>
@@ -3100,6 +3100,42 @@
   </si>
   <si>
     <t>BALAJI TUTORIALS YT CHANNEL</t>
+  </si>
+  <si>
+    <t>Techworld with Nana  YT</t>
+  </si>
+  <si>
+    <t>DevOps Made Easy YT</t>
+  </si>
+  <si>
+    <t>Valaxy Tech YT</t>
+  </si>
+  <si>
+    <t>DevOps4Solutions YT</t>
+  </si>
+  <si>
+    <t>DevSecOps</t>
+  </si>
+  <si>
+    <t>AWS - RANGA/SAA/SOPS</t>
+  </si>
+  <si>
+    <t>AWS - Terraform - KalyanD/Anshul/Other Udemy</t>
+  </si>
+  <si>
+    <t>Ansible - Anshul/AR Shankar/Shikhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview Questions </t>
+  </si>
+  <si>
+    <t>All Projects Practice</t>
+  </si>
+  <si>
+    <t>Interview Questions Study</t>
+  </si>
+  <si>
+    <t>Udemy/DT-DLWD/Deekshit/BT YT channels Interview Questions</t>
   </si>
 </sst>
 </file>
@@ -3424,9 +3460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3454,6 +3487,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4615,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,10 +4671,10 @@
       <c r="B1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="15" t="s">
         <v>694</v>
       </c>
@@ -4666,7 +4702,7 @@
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="21" t="s">
         <v>937</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -4686,7 +4722,7 @@
       <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="62" t="s">
         <v>567</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -4704,7 +4740,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="62" t="s">
         <v>568</v>
       </c>
       <c r="C5" t="s">
@@ -4725,7 +4761,7 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="62" t="s">
         <v>569</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -4745,7 +4781,7 @@
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="20" t="s">
         <v>570</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -4763,7 +4799,7 @@
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20" t="s">
         <v>571</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4781,7 +4817,7 @@
       <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="20" t="s">
         <v>572</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -4844,7 +4880,7 @@
       <c r="B12" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>676</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -4968,7 +5004,7 @@
       <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>943</v>
       </c>
     </row>
@@ -7457,7 +7493,7 @@
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>744</v>
       </c>
       <c r="D2" s="36"/>
@@ -7487,7 +7523,7 @@
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="38"/>
       <c r="E3" s="12" t="s">
         <v>747</v>
@@ -7515,7 +7551,7 @@
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="38"/>
       <c r="E4" s="12" t="s">
         <v>749</v>
@@ -7573,7 +7609,7 @@
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>753</v>
       </c>
       <c r="D6" s="42"/>
@@ -7603,7 +7639,7 @@
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="42"/>
       <c r="E7" s="20" t="s">
         <v>756</v>
@@ -7631,7 +7667,7 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="43" t="s">
         <v>742</v>
       </c>
@@ -7661,7 +7697,7 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="43" t="s">
         <v>742</v>
       </c>
@@ -7691,7 +7727,7 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="43" t="s">
         <v>742</v>
       </c>
@@ -7721,7 +7757,7 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="43" t="s">
         <v>742</v>
       </c>
@@ -7751,7 +7787,7 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="43" t="s">
         <v>742</v>
       </c>
@@ -7781,7 +7817,7 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="43" t="s">
         <v>742</v>
       </c>
@@ -7811,7 +7847,7 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="43" t="s">
         <v>742</v>
       </c>
@@ -7841,7 +7877,7 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="43" t="s">
         <v>742</v>
       </c>
@@ -7871,7 +7907,7 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="43" t="s">
         <v>742</v>
       </c>
@@ -7901,7 +7937,7 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="43" t="s">
         <v>742</v>
       </c>
@@ -7931,7 +7967,7 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="43" t="s">
         <v>742</v>
       </c>
@@ -7961,7 +7997,7 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="43" t="s">
         <v>742</v>
       </c>
@@ -7991,7 +8027,7 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="43" t="s">
         <v>742</v>
       </c>
@@ -8015,7 +8051,7 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="43" t="s">
         <v>742</v>
       </c>
@@ -8039,7 +8075,7 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="43" t="s">
         <v>742</v>
       </c>
@@ -8063,7 +8099,7 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="43" t="s">
         <v>742</v>
       </c>
@@ -8087,7 +8123,7 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="43" t="s">
         <v>742</v>
       </c>
@@ -8111,7 +8147,7 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="43"/>
       <c r="E25" s="8" t="s">
         <v>784</v>
@@ -8133,7 +8169,7 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="43"/>
       <c r="E26" s="8" t="s">
         <v>785</v>
@@ -8148,7 +8184,7 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>786</v>
@@ -8163,7 +8199,7 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="43"/>
       <c r="E28" s="8" t="s">
         <v>787</v>
@@ -8178,7 +8214,7 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="43"/>
       <c r="E29" s="8" t="s">
         <v>788</v>
@@ -8193,7 +8229,7 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="43"/>
       <c r="E30" s="8" t="s">
         <v>789</v>
@@ -8208,7 +8244,7 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
         <v>790</v>
@@ -8223,7 +8259,7 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="43"/>
       <c r="E32" s="8" t="s">
         <v>791</v>
@@ -8238,7 +8274,7 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="59" t="s">
         <v>792</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -8257,7 +8293,7 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="58"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="45" t="s">
         <v>793</v>
       </c>
@@ -8274,7 +8310,7 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="45" t="s">
         <v>793</v>
       </c>
@@ -8289,7 +8325,7 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="45" t="s">
         <v>793</v>
       </c>
@@ -8304,7 +8340,7 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="45" t="s">
         <v>793</v>
       </c>
@@ -12248,8 +12284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12267,19 +12303,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="15" t="s">
         <v>694</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>698</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="27" t="s">
         <v>357</v>
       </c>
@@ -12589,7 +12625,9 @@
       <c r="J10" s="31">
         <v>3</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L10" s="15" t="s">
         <v>707</v>
       </c>
@@ -12625,7 +12663,9 @@
       <c r="J11" s="31">
         <v>4</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L11" s="15" t="s">
         <v>708</v>
       </c>
@@ -12659,7 +12699,9 @@
       <c r="J12" s="31">
         <v>5</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L12" s="15" t="s">
         <v>709</v>
       </c>
@@ -12689,7 +12731,9 @@
       <c r="J13" s="31">
         <v>6</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L13" s="15" t="s">
         <v>710</v>
       </c>
@@ -12717,7 +12761,9 @@
       <c r="J14" s="31">
         <v>7</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L14" s="15" t="s">
         <v>711</v>
       </c>
@@ -12738,7 +12784,9 @@
       <c r="J15" s="29">
         <v>8</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L15" s="15" t="s">
         <v>712</v>
       </c>
@@ -12761,7 +12809,9 @@
       <c r="J16" s="29">
         <v>9</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L16" s="15" t="s">
         <v>713</v>
       </c>
@@ -12782,7 +12832,9 @@
       <c r="J17" s="29">
         <v>10</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L17" s="15" t="s">
         <v>714</v>
       </c>
@@ -12805,7 +12857,9 @@
       <c r="J18" s="29">
         <v>11</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L18" s="15" t="s">
         <v>715</v>
       </c>
@@ -12826,7 +12880,9 @@
       <c r="J19" s="29">
         <v>12</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L19" s="15" t="s">
         <v>716</v>
       </c>
@@ -12847,7 +12903,9 @@
       <c r="J20" s="29">
         <v>13</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L20" s="15" t="s">
         <v>717</v>
       </c>
@@ -12870,7 +12928,9 @@
       <c r="J21" s="29">
         <v>14</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L21" s="15" t="s">
         <v>718</v>
       </c>
@@ -12891,7 +12951,9 @@
       <c r="J22" s="29">
         <v>15</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L22" s="15" t="s">
         <v>719</v>
       </c>
@@ -12912,7 +12974,9 @@
       <c r="J23" s="29">
         <v>16</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L23" s="15" t="s">
         <v>720</v>
       </c>
@@ -12933,7 +12997,9 @@
       <c r="J24" s="29">
         <v>17</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L24" s="15" t="s">
         <v>721</v>
       </c>
@@ -12954,7 +13020,9 @@
       <c r="J25" s="29">
         <v>18</v>
       </c>
-      <c r="K25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L25" s="15" t="s">
         <v>722</v>
       </c>
@@ -12977,7 +13045,9 @@
       <c r="J26" s="29">
         <v>19</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L26" s="15" t="s">
         <v>723</v>
       </c>
@@ -12998,7 +13068,9 @@
       <c r="J27" s="29">
         <v>20</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L27" s="15" t="s">
         <v>724</v>
       </c>
@@ -13021,7 +13093,9 @@
       <c r="J28" s="29">
         <v>21</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L28" s="15" t="s">
         <v>725</v>
       </c>
@@ -13042,7 +13116,9 @@
       <c r="J29" s="29">
         <v>22</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L29" s="15" t="s">
         <v>726</v>
       </c>
@@ -13063,7 +13139,9 @@
       <c r="J30" s="29">
         <v>23</v>
       </c>
-      <c r="K30" s="15"/>
+      <c r="K30" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L30" s="15" t="s">
         <v>727</v>
       </c>
@@ -13084,7 +13162,9 @@
       <c r="J31" s="29">
         <v>24</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L31" s="15" t="s">
         <v>728</v>
       </c>
@@ -13105,7 +13185,9 @@
       <c r="J32" s="29">
         <v>25</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="L32" s="15" t="s">
         <v>729</v>
       </c>
@@ -13126,7 +13208,9 @@
       <c r="J33" s="29">
         <v>26</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="15" t="s">
+        <v>960</v>
+      </c>
       <c r="L33" s="15" t="s">
         <v>730</v>
       </c>
@@ -13147,7 +13231,9 @@
       <c r="J34" s="29">
         <v>27</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="15" t="s">
+        <v>960</v>
+      </c>
       <c r="L34" s="15" t="s">
         <v>731</v>
       </c>
@@ -13168,7 +13254,9 @@
       <c r="J35" s="29">
         <v>28</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="15" t="s">
+        <v>960</v>
+      </c>
       <c r="L35" s="15" t="s">
         <v>732</v>
       </c>
@@ -13193,7 +13281,9 @@
       <c r="J36" s="29">
         <v>29</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="15" t="s">
+        <v>960</v>
+      </c>
       <c r="L36" s="15" t="s">
         <v>733</v>
       </c>
@@ -13214,7 +13304,9 @@
       <c r="J37" s="29">
         <v>30</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="15" t="s">
+        <v>962</v>
+      </c>
       <c r="L37" s="15" t="s">
         <v>734</v>
       </c>
@@ -13229,7 +13321,9 @@
       <c r="J38" s="29">
         <v>31</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>962</v>
+      </c>
       <c r="L38" s="15" t="s">
         <v>735</v>
       </c>
@@ -13244,7 +13338,9 @@
       <c r="J39" s="29">
         <v>32</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>961</v>
+      </c>
       <c r="L39" s="15" t="s">
         <v>736</v>
       </c>
@@ -13262,7 +13358,9 @@
       <c r="J40" s="29">
         <v>33</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="15" t="s">
+        <v>961</v>
+      </c>
       <c r="L40" s="15" t="s">
         <v>737</v>
       </c>
@@ -13280,7 +13378,9 @@
       <c r="J41" s="29">
         <v>34</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="15" t="s">
+        <v>963</v>
+      </c>
       <c r="L41" s="15" t="s">
         <v>738</v>
       </c>
@@ -13295,7 +13395,9 @@
       <c r="J42" s="29">
         <v>35</v>
       </c>
-      <c r="K42" s="15"/>
+      <c r="K42" s="15" t="s">
+        <v>963</v>
+      </c>
       <c r="L42" s="34" t="s">
         <v>739</v>
       </c>
@@ -13310,8 +13412,10 @@
       <c r="J43" s="29">
         <v>36</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="34" t="s">
+      <c r="K43" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L43" s="51" t="s">
         <v>740</v>
       </c>
     </row>
@@ -13325,8 +13429,10 @@
       <c r="J44" s="29">
         <v>37</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="34" t="s">
+      <c r="K44" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L44" s="51" t="s">
         <v>935</v>
       </c>
     </row>
@@ -13340,7 +13446,10 @@
       <c r="J45" s="29">
         <v>38</v>
       </c>
-      <c r="K45" s="15"/>
+      <c r="K45" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H46" s="28">
@@ -13352,7 +13461,10 @@
       <c r="J46" s="29">
         <v>39</v>
       </c>
-      <c r="K46" s="15"/>
+      <c r="K46" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47" s="28">
@@ -13364,7 +13476,10 @@
       <c r="J47" s="29">
         <v>40</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H48" s="28">
@@ -13376,9 +13491,12 @@
       <c r="J48" s="29">
         <v>41</v>
       </c>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H49" s="28">
         <v>44648</v>
       </c>
@@ -13388,9 +13506,12 @@
       <c r="J49" s="29">
         <v>42</v>
       </c>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H50" s="28">
         <v>44649</v>
       </c>
@@ -13400,9 +13521,12 @@
       <c r="J50" s="29">
         <v>43</v>
       </c>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H51" s="28">
         <v>44650</v>
       </c>
@@ -13412,9 +13536,12 @@
       <c r="J51" s="29">
         <v>44</v>
       </c>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H52" s="28">
         <v>44651</v>
       </c>
@@ -13424,9 +13551,12 @@
       <c r="J52" s="29">
         <v>45</v>
       </c>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H53" s="28">
         <v>44652</v>
       </c>
@@ -13436,9 +13566,12 @@
       <c r="J53" s="29">
         <v>46</v>
       </c>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H54" s="28">
         <v>44653</v>
       </c>
@@ -13448,9 +13581,12 @@
       <c r="J54" s="29">
         <v>47</v>
       </c>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H55" s="28">
         <v>44654</v>
       </c>
@@ -13460,9 +13596,12 @@
       <c r="J55" s="29">
         <v>48</v>
       </c>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H56" s="28">
         <v>44655</v>
       </c>
@@ -13472,9 +13611,12 @@
       <c r="J56" s="29">
         <v>49</v>
       </c>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H57" s="28">
         <v>44656</v>
       </c>
@@ -13484,9 +13626,12 @@
       <c r="J57" s="29">
         <v>50</v>
       </c>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H58" s="28">
         <v>44657</v>
       </c>
@@ -13496,9 +13641,12 @@
       <c r="J58" s="29">
         <v>51</v>
       </c>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H59" s="28">
         <v>44658</v>
       </c>
@@ -13508,9 +13656,12 @@
       <c r="J59" s="29">
         <v>52</v>
       </c>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H60" s="28">
         <v>44659</v>
       </c>
@@ -13520,9 +13671,14 @@
       <c r="J60" s="29">
         <v>53</v>
       </c>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H61" s="28">
         <v>44660</v>
       </c>
@@ -13532,9 +13688,14 @@
       <c r="J61" s="29">
         <v>54</v>
       </c>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H62" s="28">
         <v>44661</v>
       </c>
@@ -13544,9 +13705,14 @@
       <c r="J62" s="29">
         <v>55</v>
       </c>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H63" s="28">
         <v>44662</v>
       </c>
@@ -13556,9 +13722,14 @@
       <c r="J63" s="29">
         <v>56</v>
       </c>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H64" s="28">
         <v>44663</v>
       </c>
@@ -13568,9 +13739,14 @@
       <c r="J64" s="29">
         <v>57</v>
       </c>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H65" s="28">
         <v>44664</v>
       </c>
@@ -13580,9 +13756,14 @@
       <c r="J65" s="29">
         <v>58</v>
       </c>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H66" s="28">
         <v>44665</v>
       </c>
@@ -13592,9 +13773,14 @@
       <c r="J66" s="29">
         <v>59</v>
       </c>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H67" s="28">
         <v>44666</v>
       </c>
@@ -13604,9 +13790,14 @@
       <c r="J67" s="29">
         <v>60</v>
       </c>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H68" s="28">
         <v>44667</v>
       </c>
@@ -13616,9 +13807,14 @@
       <c r="J68" s="29">
         <v>61</v>
       </c>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H69" s="28">
         <v>44668</v>
       </c>
@@ -13628,9 +13824,14 @@
       <c r="J69" s="29">
         <v>62</v>
       </c>
-      <c r="K69" s="15"/>
-    </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H70" s="28">
         <v>44669</v>
       </c>
@@ -13640,9 +13841,14 @@
       <c r="J70" s="29">
         <v>63</v>
       </c>
-      <c r="K70" s="15"/>
-    </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H71" s="28">
         <v>44670</v>
       </c>
@@ -13652,9 +13858,14 @@
       <c r="J71" s="29">
         <v>64</v>
       </c>
-      <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H72" s="28">
         <v>44671</v>
       </c>
@@ -13664,9 +13875,14 @@
       <c r="J72" s="29">
         <v>65</v>
       </c>
-      <c r="K72" s="15"/>
-    </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H73" s="28">
         <v>44672</v>
       </c>
@@ -13676,9 +13892,14 @@
       <c r="J73" s="29">
         <v>66</v>
       </c>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H74" s="28">
         <v>44673</v>
       </c>
@@ -13688,9 +13909,14 @@
       <c r="J74" s="29">
         <v>67</v>
       </c>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H75" s="28">
         <v>44674</v>
       </c>
@@ -13700,9 +13926,14 @@
       <c r="J75" s="29">
         <v>68</v>
       </c>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H76" s="28">
         <v>44675</v>
       </c>
@@ -13712,9 +13943,14 @@
       <c r="J76" s="29">
         <v>69</v>
       </c>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H77" s="28">
         <v>44676</v>
       </c>
@@ -13724,9 +13960,14 @@
       <c r="J77" s="29">
         <v>70</v>
       </c>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H78" s="28">
         <v>44677</v>
       </c>
@@ -13736,9 +13977,14 @@
       <c r="J78" s="29">
         <v>71</v>
       </c>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H79" s="28">
         <v>44678</v>
       </c>
@@ -13748,9 +13994,14 @@
       <c r="J79" s="29">
         <v>72</v>
       </c>
-      <c r="K79" s="15"/>
-    </row>
-    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H80" s="28">
         <v>44679</v>
       </c>
@@ -13760,9 +14011,14 @@
       <c r="J80" s="29">
         <v>73</v>
       </c>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H81" s="28">
         <v>44680</v>
       </c>
@@ -13772,9 +14028,14 @@
       <c r="J81" s="29">
         <v>74</v>
       </c>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="82" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H82" s="28">
         <v>44681</v>
       </c>
@@ -13784,28 +14045,38 @@
       <c r="J82" s="29">
         <v>75</v>
       </c>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H83" s="28">
         <v>44682</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="J83" s="55">
+      <c r="J83" s="54">
         <v>76</v>
       </c>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="L83" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H84" s="28">
         <v>44683</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="J84" s="55">
+      <c r="J84" s="54">
         <v>77</v>
       </c>
       <c r="K84" s="15"/>

--- a/AVK_DevOps_Plan1.xlsx
+++ b/AVK_DevOps_Plan1.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="973">
   <si>
     <t>LINUX</t>
   </si>
@@ -3136,6 +3136,9 @@
   </si>
   <si>
     <t>Udemy/DT-DLWD/Deekshit/BT YT channels Interview Questions</t>
+  </si>
+  <si>
+    <t>DPT PROJECT Listen</t>
   </si>
 </sst>
 </file>
@@ -3467,6 +3470,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3487,9 +3493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4671,10 +4674,10 @@
       <c r="B1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="15" t="s">
         <v>694</v>
       </c>
@@ -4722,7 +4725,7 @@
       <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="55" t="s">
         <v>567</v>
       </c>
       <c r="D4" s="33" t="s">
@@ -4740,7 +4743,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="55" t="s">
         <v>568</v>
       </c>
       <c r="C5" t="s">
@@ -4761,7 +4764,7 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>569</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -7493,7 +7496,7 @@
       <c r="B2" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>744</v>
       </c>
       <c r="D2" s="36"/>
@@ -7523,7 +7526,7 @@
       <c r="B3" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="38"/>
       <c r="E3" s="12" t="s">
         <v>747</v>
@@ -7551,7 +7554,7 @@
       <c r="B4" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="38"/>
       <c r="E4" s="12" t="s">
         <v>749</v>
@@ -7609,7 +7612,7 @@
       <c r="B6" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>753</v>
       </c>
       <c r="D6" s="42"/>
@@ -7639,7 +7642,7 @@
       <c r="B7" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="42"/>
       <c r="E7" s="20" t="s">
         <v>756</v>
@@ -7667,7 +7670,7 @@
       <c r="B8" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="43" t="s">
         <v>742</v>
       </c>
@@ -7697,7 +7700,7 @@
       <c r="B9" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="43" t="s">
         <v>742</v>
       </c>
@@ -7727,7 +7730,7 @@
       <c r="B10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="43" t="s">
         <v>742</v>
       </c>
@@ -7757,7 +7760,7 @@
       <c r="B11" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="43" t="s">
         <v>742</v>
       </c>
@@ -7787,7 +7790,7 @@
       <c r="B12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="43" t="s">
         <v>742</v>
       </c>
@@ -7817,7 +7820,7 @@
       <c r="B13" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="43" t="s">
         <v>742</v>
       </c>
@@ -7847,7 +7850,7 @@
       <c r="B14" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="43" t="s">
         <v>742</v>
       </c>
@@ -7877,7 +7880,7 @@
       <c r="B15" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="43" t="s">
         <v>742</v>
       </c>
@@ -7907,7 +7910,7 @@
       <c r="B16" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="43" t="s">
         <v>742</v>
       </c>
@@ -7937,7 +7940,7 @@
       <c r="B17" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="43" t="s">
         <v>742</v>
       </c>
@@ -7967,7 +7970,7 @@
       <c r="B18" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="43" t="s">
         <v>742</v>
       </c>
@@ -7997,7 +8000,7 @@
       <c r="B19" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="43" t="s">
         <v>742</v>
       </c>
@@ -8027,7 +8030,7 @@
       <c r="B20" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="43" t="s">
         <v>742</v>
       </c>
@@ -8051,7 +8054,7 @@
       <c r="B21" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="43" t="s">
         <v>742</v>
       </c>
@@ -8075,7 +8078,7 @@
       <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="43" t="s">
         <v>742</v>
       </c>
@@ -8099,7 +8102,7 @@
       <c r="B23" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="43" t="s">
         <v>742</v>
       </c>
@@ -8123,7 +8126,7 @@
       <c r="B24" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="43" t="s">
         <v>742</v>
       </c>
@@ -8147,7 +8150,7 @@
       <c r="B25" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="43"/>
       <c r="E25" s="8" t="s">
         <v>784</v>
@@ -8169,7 +8172,7 @@
       <c r="B26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="43"/>
       <c r="E26" s="8" t="s">
         <v>785</v>
@@ -8184,7 +8187,7 @@
       <c r="B27" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="43"/>
       <c r="E27" s="8" t="s">
         <v>786</v>
@@ -8199,7 +8202,7 @@
       <c r="B28" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="43"/>
       <c r="E28" s="8" t="s">
         <v>787</v>
@@ -8214,7 +8217,7 @@
       <c r="B29" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="43"/>
       <c r="E29" s="8" t="s">
         <v>788</v>
@@ -8229,7 +8232,7 @@
       <c r="B30" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="43"/>
       <c r="E30" s="8" t="s">
         <v>789</v>
@@ -8244,7 +8247,7 @@
       <c r="B31" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
         <v>790</v>
@@ -8259,7 +8262,7 @@
       <c r="B32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="43"/>
       <c r="E32" s="8" t="s">
         <v>791</v>
@@ -8274,7 +8277,7 @@
       <c r="B33" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>792</v>
       </c>
       <c r="D33" s="45" t="s">
@@ -8293,7 +8296,7 @@
       <c r="B34" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="45" t="s">
         <v>793</v>
       </c>
@@ -8310,7 +8313,7 @@
       <c r="B35" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="45" t="s">
         <v>793</v>
       </c>
@@ -8325,7 +8328,7 @@
       <c r="B36" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="45" t="s">
         <v>793</v>
       </c>
@@ -8340,7 +8343,7 @@
       <c r="B37" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="45" t="s">
         <v>793</v>
       </c>
@@ -12284,8 +12287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12303,19 +12306,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="15" t="s">
         <v>694</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>698</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="27" t="s">
         <v>357</v>
       </c>
@@ -12626,7 +12629,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>39</v>
+        <v>972</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>707</v>
@@ -12732,7 +12735,7 @@
         <v>6</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>495</v>
+        <v>39</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>710</v>
@@ -13209,7 +13212,7 @@
         <v>26</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>960</v>
+        <v>495</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>730</v>
